--- a/Outputs/appendix/t-theta.xlsx
+++ b/Outputs/appendix/t-theta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">5 quantiles of theta_mle </t>
   </si>
@@ -229,24 +229,6 @@
   </si>
   <si>
     <t>.962482</t>
-  </si>
-  <si>
-    <t>Used antibiotics in any case</t>
-  </si>
-  <si>
-    <t>.6481224</t>
-  </si>
-  <si>
-    <t>.5924895</t>
-  </si>
-  <si>
-    <t>.596662</t>
-  </si>
-  <si>
-    <t>.5416667</t>
-  </si>
-  <si>
-    <t>.5857741</t>
   </si>
 </sst>
 </file>
@@ -290,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -330,9 +312,6 @@
       <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -371,9 +350,6 @@
       <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -412,9 +388,6 @@
       <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -453,9 +426,6 @@
       <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -494,9 +464,6 @@
       <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -535,9 +502,6 @@
       <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
